--- a/output/kanban-report.xlsx
+++ b/output/kanban-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>Título</t>
   </si>
@@ -29,133 +29,178 @@
     <t>Pontos</t>
   </si>
   <si>
+    <t>Melhoria: Bloquear pedidos de lojas inadimplentes</t>
+  </si>
+  <si>
+    <t>Angelo Demarchi</t>
+  </si>
+  <si>
+    <t>LIVE! Oficial</t>
+  </si>
+  <si>
+    <t>108845</t>
+  </si>
+  <si>
+    <t>Melhoria: Captar navegador do usuário no pedido</t>
+  </si>
+  <si>
+    <t>Arthur Felipe Schmitz</t>
+  </si>
+  <si>
+    <t>LIVE! Oficial, External Validation</t>
+  </si>
+  <si>
+    <t>109148</t>
+  </si>
+  <si>
+    <t>Melhoria: Captando navegador usuário no pedido</t>
+  </si>
+  <si>
     <t>Melhoria: Implementar dados estruturados - SEO</t>
   </si>
   <si>
-    <t>Arthur Felipe Schmitz</t>
-  </si>
-  <si>
-    <t>LIVE! Oficial</t>
-  </si>
-  <si>
     <t>109075</t>
   </si>
   <si>
-    <t>Melhoria: Novo campo no cadastro de categoria</t>
-  </si>
-  <si>
-    <t>108971</t>
-  </si>
-  <si>
-    <t>Melhoria: Integração Onebeat - Visão MTA</t>
+    <t>Melhoria: Rotina pedidos em aberto Visão MTA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Melhoria: Novo produto no complete o look</t>
+  </si>
+  <si>
+    <t>LIVE! Oficial, Merged, External Validation</t>
+  </si>
+  <si>
+    <t>108097</t>
+  </si>
+  <si>
+    <t>Melhoria: Cobrando frete de colaborador externo</t>
+  </si>
+  <si>
+    <t>Gabriel Medeiros</t>
+  </si>
+  <si>
+    <t>108918</t>
+  </si>
+  <si>
+    <t>Melhoria: Relatório de avise-me por cliente</t>
+  </si>
+  <si>
+    <t>Sahra Flôhr</t>
+  </si>
+  <si>
+    <t>108964</t>
+  </si>
+  <si>
+    <t>Correção: Cores duplicadas na integração</t>
+  </si>
+  <si>
+    <t>108893</t>
+  </si>
+  <si>
+    <t>Correção: Loja padrão após data de corte</t>
+  </si>
+  <si>
+    <t>Capitol</t>
+  </si>
+  <si>
+    <t>LIVE! Experience</t>
+  </si>
+  <si>
+    <t>109122</t>
+  </si>
+  <si>
+    <t>Correção: Erro de desconto na divisão de embarques</t>
+  </si>
+  <si>
+    <t>Diego Sena</t>
   </si>
   <si>
     <t>ShopLIVE!</t>
   </si>
   <si>
-    <t>108188</t>
-  </si>
-  <si>
-    <t>Melhoria: Exportação planejamentos em CSV</t>
-  </si>
-  <si>
-    <t>Cesar Henrique Ramos</t>
-  </si>
-  <si>
-    <t>108767</t>
-  </si>
-  <si>
-    <t>Melhoria: Cadastro automático de devoçução no Systextil</t>
-  </si>
-  <si>
-    <t>Diego Sena</t>
-  </si>
-  <si>
-    <t>108209</t>
-  </si>
-  <si>
-    <t>Melhoria: E-mails transacionais</t>
-  </si>
-  <si>
-    <t>Sahra Flôhr</t>
-  </si>
-  <si>
-    <t>108884</t>
-  </si>
-  <si>
-    <t>Correção: Cores duplicadas na integração</t>
-  </si>
-  <si>
-    <t>Angelo Demarchi</t>
-  </si>
-  <si>
-    <t>108893</t>
-  </si>
-  <si>
-    <t>Correção: Erro ao tratar pedido como Extravio</t>
+    <t>109136</t>
+  </si>
+  <si>
+    <t>Correção: Erro ao sugerir redirata em loja inativa</t>
+  </si>
+  <si>
+    <t>109063</t>
+  </si>
+  <si>
+    <t>Correção: Status PIX não atualiza pela rotina</t>
   </si>
   <si>
     <t>Yago Costa</t>
   </si>
   <si>
-    <t>109054</t>
-  </si>
-  <si>
-    <t>Correção: Geração de cupom em devolução de defeito</t>
-  </si>
-  <si>
-    <t>109031</t>
-  </si>
-  <si>
-    <t>Correção: Reembolso Pix na segunda troca</t>
-  </si>
-  <si>
-    <t>108974</t>
-  </si>
-  <si>
-    <t>Correção: Vendedora não consegue ver suas vendas</t>
-  </si>
-  <si>
-    <t>108959</t>
-  </si>
-  <si>
-    <t>Ajuste: Rotina de integração de cliente</t>
-  </si>
-  <si>
-    <t>109084</t>
-  </si>
-  <si>
-    <t>Ajuste: Verificação de domínio Meta</t>
+    <t>109207</t>
+  </si>
+  <si>
+    <t>INCIDENTE URGENTE -  NF de devolução paradas  - LARISSA ZOCATELLI -PENDENTE</t>
+  </si>
+  <si>
+    <t>108967</t>
+  </si>
+  <si>
+    <t>Ajuste: Alteração imagens categorias de produtos</t>
+  </si>
+  <si>
+    <t>109179</t>
+  </si>
+  <si>
+    <t>Ajuste: Selo thumb de cor</t>
+  </si>
+  <si>
+    <t>109073</t>
+  </si>
+  <si>
+    <t>Ajuste: Troca de banners nova coleção</t>
+  </si>
+  <si>
+    <t>109007</t>
+  </si>
+  <si>
+    <t>Ajuste: Alteração banners pág Cupons</t>
+  </si>
+  <si>
+    <t>109009</t>
+  </si>
+  <si>
+    <t>Ajuste: Alteração banners pág Cashback</t>
+  </si>
+  <si>
+    <t>109001</t>
+  </si>
+  <si>
+    <t>Ajuste: Dados estruturados de produto para SEO</t>
+  </si>
+  <si>
+    <t>108823</t>
+  </si>
+  <si>
+    <t>Ajuste: Exibir último complete o look criado</t>
+  </si>
+  <si>
+    <t>108750</t>
+  </si>
+  <si>
+    <t>Ajuste: Redirect Trabalhe Conosco</t>
+  </si>
+  <si>
+    <t>108741</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO - Criar opção para editar ou ocultar a estimativa de entrega dos pedidos na PDP -PENDENTE</t>
   </si>
   <si>
     <t>LIVE! Clothing</t>
   </si>
   <si>
-    <t>108991</t>
-  </si>
-  <si>
-    <t>Ajuste: Selo thumb de cor</t>
-  </si>
-  <si>
-    <t>109073</t>
-  </si>
-  <si>
-    <t>Ajuste: Retirar nome categoria do Layout</t>
-  </si>
-  <si>
-    <t>108973</t>
-  </si>
-  <si>
-    <t>Ajuste: Troca de banners de evento</t>
-  </si>
-  <si>
-    <t>Capitol</t>
-  </si>
-  <si>
-    <t>LIVE! Experience</t>
-  </si>
-  <si>
-    <t>109047</t>
+    <t>109039</t>
   </si>
   <si>
     <t>Ajuste: Tornar campo obrigatório</t>
@@ -164,12 +209,6 @@
     <t>109030</t>
   </si>
   <si>
-    <t>Ajuste: Validações na edição de cliente</t>
-  </si>
-  <si>
-    <t>108968</t>
-  </si>
-  <si>
     <t>Ajuste: Eventos cancelados</t>
   </si>
   <si>
@@ -179,94 +218,52 @@
     <t>109041</t>
   </si>
   <si>
-    <t>Ajuste: Habilitando Omni para pedidos de PJ</t>
-  </si>
-  <si>
-    <t>Gabriel Medeiros</t>
-  </si>
-  <si>
-    <t>108981</t>
-  </si>
-  <si>
-    <t>Ajuste: Atualizações FAQa LIVE! Run</t>
+    <t>Ajuste: Exibindo modal de cupom não aplicado</t>
+  </si>
+  <si>
+    <t>109143</t>
+  </si>
+  <si>
+    <t>Ajuste: Aumento de frete grátis cabeçalho</t>
   </si>
   <si>
     <t>Geiso Herrera</t>
   </si>
   <si>
-    <t>109098</t>
-  </si>
-  <si>
-    <t>Ajuste: Alteração FAQ LIVE! Run</t>
-  </si>
-  <si>
-    <t>109048</t>
-  </si>
-  <si>
-    <t>Ajuste: Modificar links internos para liveactivewear.com</t>
+    <t>109104</t>
+  </si>
+  <si>
+    <t>Ajuste: Melhorando score de Accessibility do pagespeed (Imagens)</t>
   </si>
   <si>
     <t>Mateus Almeida de Vergennes</t>
   </si>
   <si>
-    <t>109024</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - alteração do buildspec de homologação para seguir as credenciais do secrets e não do .env no S3</t>
-  </si>
-  <si>
-    <t>108989</t>
-  </si>
-  <si>
-    <t>Ajuste: Removendo locais integração Shopify</t>
-  </si>
-  <si>
-    <t>106721</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO - Hotsite Lançamento Coleção Journey'25 06/03</t>
-  </si>
-  <si>
-    <t>Tiago Felipe Ronchi</t>
-  </si>
-  <si>
-    <t>LIVE! Oficial, External Validation</t>
-  </si>
-  <si>
-    <t>109038</t>
-  </si>
-  <si>
-    <t>Ajuste: Exibindo produto deletado dos pedidos</t>
-  </si>
-  <si>
-    <t>109095</t>
-  </si>
-  <si>
-    <t>Ajuste: Análise de devolução com arquivo corrompido</t>
-  </si>
-  <si>
-    <t>109057</t>
-  </si>
-  <si>
-    <t>Ajuste: Exibir informação do motivo "Outro"</t>
-  </si>
-  <si>
-    <t>108955</t>
-  </si>
-  <si>
-    <t>Ajuste: Exibindo imagens após solicitação</t>
-  </si>
-  <si>
-    <t>108954</t>
-  </si>
-  <si>
-    <t>SEM CHAMADO - Mudançar integração de lojas Experience</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Desempenho por entrega: 18,55%</t>
+    <t>109135</t>
+  </si>
+  <si>
+    <t>Ajuste: Melhorando score de Accessibility do pagespeed (Botões)</t>
+  </si>
+  <si>
+    <t>109129</t>
+  </si>
+  <si>
+    <t>Ajuste: Review da devolução em tempos diferentes</t>
+  </si>
+  <si>
+    <t>109237</t>
+  </si>
+  <si>
+    <t>Ajuste: Impedindo estorno manual de Omni</t>
+  </si>
+  <si>
+    <t>109192</t>
+  </si>
+  <si>
+    <t>Debug painel com breakpoint -PENDENTE</t>
+  </si>
+  <si>
+    <t>Desempenho por entrega: 19,53%</t>
   </si>
 </sst>
 </file>
@@ -311,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -356,13 +353,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>20.0</v>
@@ -370,16 +367,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>12</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>13</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>20.0</v>
@@ -390,13 +387,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>16</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>20.0</v>
@@ -404,33 +401,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>19</v>
-      </c>
+      <c r="D6" s="0"/>
       <c r="E6" t="n" s="0">
         <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>20.0</v>
@@ -438,50 +433,50 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>25</v>
-      </c>
       <c r="E8" t="n" s="0">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="E9" t="n" s="0">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>-20.0</v>
@@ -489,13 +484,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>7</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>32</v>
@@ -509,13 +504,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>-20.0</v>
@@ -523,67 +518,67 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>5.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>5.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>6</v>
-      </c>
       <c r="C15" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>5.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>5.0</v>
@@ -591,13 +586,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>47</v>
@@ -611,10 +606,10 @@
         <v>48</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>49</v>
@@ -628,7 +623,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>7</v>
@@ -645,13 +640,13 @@
         <v>52</v>
       </c>
       <c r="B20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>5.0</v>
@@ -659,16 +654,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>55</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>57</v>
       </c>
       <c r="E21" t="n" s="0">
         <v>5.0</v>
@@ -676,16 +671,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n" s="0">
         <v>5.0</v>
@@ -693,16 +688,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>62</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>5.0</v>
@@ -710,16 +705,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>5.0</v>
@@ -727,16 +722,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>64</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>67</v>
       </c>
       <c r="E25" t="n" s="0">
         <v>5.0</v>
@@ -744,16 +739,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>5.0</v>
@@ -761,16 +756,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n" s="0">
         <v>5.0</v>
@@ -778,16 +773,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n" s="0">
         <v>5.0</v>
@@ -795,16 +790,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>5.0</v>
@@ -812,16 +807,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n" s="0">
         <v>5.0</v>
@@ -829,16 +824,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n" s="0">
         <v>5.0</v>
@@ -846,22 +841,39 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s" s="0">
+      <c r="B33" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
         <v>83</v>
-      </c>
-      <c r="D32" s="0"/>
-      <c r="E32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
